--- a/Tests_run_300.xlsx
+++ b/Tests_run_300.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -39,11 +39,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD37"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +590,11 @@
           <t>VREF ICE</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OEI Gradient</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -704,6 +703,9 @@
       <c r="AD2" t="n">
         <v>103</v>
       </c>
+      <c r="AE2" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -742,75 +744,78 @@
         <v>295</v>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>14825</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
         <v>15</v>
       </c>
-      <c r="M3" t="n">
-        <v>995</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>14225</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>35</v>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T3" t="n">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>19051(c)</t>
+          <t>19051(s)</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>89.77</v>
+        <v>90</v>
       </c>
       <c r="W3" t="n">
-        <v>99.77</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="Y3" t="n">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="Z3" t="n">
-        <v>939</v>
+        <v>845</v>
       </c>
       <c r="AA3" t="n">
-        <v>925</v>
+        <v>869</v>
       </c>
       <c r="AB3" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AC3" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AD3" t="n">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6.68</v>
       </c>
     </row>
     <row r="4">
@@ -847,78 +852,81 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>14825</v>
+        <v>15425</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>On</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T4" t="n">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>19051(s)</t>
+          <t>19051(c)</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>90</v>
+        <v>89.87</v>
       </c>
       <c r="W4" t="n">
-        <v>100</v>
+        <v>99.87</v>
       </c>
       <c r="X4" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Y4" t="n">
-        <v>591</v>
+        <v>618</v>
       </c>
       <c r="Z4" t="n">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="AA4" t="n">
-        <v>869</v>
+        <v>1015</v>
       </c>
       <c r="AB4" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="n">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.61</v>
       </c>
     </row>
     <row r="5">
@@ -955,27 +963,27 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M5" t="n">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>15425</v>
+        <v>17225</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -990,43 +998,46 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>261</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
+        <v>-189</v>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>19051(c)*^</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>89.87</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="W5" t="n">
-        <v>99.87</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="Y5" t="n">
-        <v>618</v>
+        <v>744</v>
       </c>
       <c r="Z5" t="n">
-        <v>923</v>
+        <v>1062</v>
       </c>
       <c r="AA5" t="n">
-        <v>1015</v>
+        <v>1169</v>
       </c>
       <c r="AB5" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC5" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AD5" t="n">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.16</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1074,19 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1083,10 +1094,10 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>16025</v>
+        <v>18700</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
         <v>15</v>
@@ -1098,43 +1109,46 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>111</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>19051(s)</t>
+        <v>-489</v>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>18163(c)*^</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>90</v>
+        <v>86.95</v>
       </c>
       <c r="W6" t="n">
-        <v>100</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>575</v>
+        <v>634</v>
       </c>
       <c r="Y6" t="n">
-        <v>646</v>
+        <v>764</v>
       </c>
       <c r="Z6" t="n">
-        <v>795</v>
+        <v>1091</v>
       </c>
       <c r="AA6" t="n">
-        <v>923</v>
+        <v>1027</v>
       </c>
       <c r="AB6" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="AC6" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AD6" t="n">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="7">
@@ -1171,19 +1185,19 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J7" t="n">
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1191,30 +1205,30 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>16625</v>
+        <v>19051</v>
       </c>
       <c r="P7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>35</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-39</v>
+        <v>-639</v>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19051(c)^</t>
+          <t>19051(c)*^</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1224,25 +1238,28 @@
         <v>100</v>
       </c>
       <c r="X7" t="n">
-        <v>575</v>
+        <v>627</v>
       </c>
       <c r="Y7" t="n">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="Z7" t="n">
-        <v>1032</v>
+        <v>992</v>
       </c>
       <c r="AA7" t="n">
-        <v>984</v>
+        <v>1091</v>
       </c>
       <c r="AB7" t="n">
+        <v>107</v>
+      </c>
+      <c r="AC7" t="n">
         <v>102</v>
       </c>
-      <c r="AC7" t="n">
-        <v>95</v>
-      </c>
       <c r="AD7" t="n">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="8">
@@ -1251,27 +1268,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F8" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1279,19 +1294,19 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" t="n">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1299,13 +1314,13 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>17225</v>
+        <v>13625</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1318,39 +1333,42 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>-189</v>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>19051(c)^</t>
+        <v>1376</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>19027(c)</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>89.90000000000001</v>
+        <v>89.77</v>
       </c>
       <c r="W8" t="n">
-        <v>99.90000000000001</v>
+        <v>99.77</v>
       </c>
       <c r="X8" t="n">
-        <v>588</v>
+        <v>541</v>
       </c>
       <c r="Y8" t="n">
-        <v>744</v>
+        <v>492</v>
       </c>
       <c r="Z8" t="n">
-        <v>1062</v>
+        <v>702</v>
       </c>
       <c r="AA8" t="n">
-        <v>1169</v>
+        <v>815</v>
       </c>
       <c r="AB8" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC8" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="n">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.96</v>
       </c>
     </row>
     <row r="9">
@@ -1359,27 +1377,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F9" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1387,33 +1403,33 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M9" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>17825</v>
+        <v>14825</v>
       </c>
       <c r="P9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1426,39 +1442,42 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-339</v>
-      </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>19051(c)^</t>
+        <v>1676</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>17947(c)</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>90</v>
+        <v>86.78</v>
       </c>
       <c r="W9" t="n">
-        <v>100</v>
+        <v>93.88</v>
       </c>
       <c r="X9" t="n">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="Y9" t="n">
-        <v>979</v>
+        <v>686</v>
       </c>
       <c r="Z9" t="n">
-        <v>1609</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>1431</v>
+        <v>934</v>
       </c>
       <c r="AB9" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AC9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AD9" t="n">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>4.81</v>
       </c>
     </row>
     <row r="10">
@@ -1467,27 +1486,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F10" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1495,19 +1512,19 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M10" t="n">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1515,17 +1532,17 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>18700</v>
+        <v>16025</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1534,11 +1551,11 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>-489</v>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>18163(c)^</t>
+        <v>1976</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>19051(c)</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1548,25 +1565,28 @@
         <v>100</v>
       </c>
       <c r="X10" t="n">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="Y10" t="n">
-        <v>764</v>
+        <v>699</v>
       </c>
       <c r="Z10" t="n">
-        <v>1091</v>
+        <v>999</v>
       </c>
       <c r="AA10" t="n">
-        <v>1027</v>
+        <v>881</v>
       </c>
       <c r="AB10" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AC10" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AD10" t="n">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5.16</v>
       </c>
     </row>
     <row r="11">
@@ -1575,27 +1595,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>YSSY</t>
+          <t>YSCB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34L</t>
-        </is>
+          <t>Canberra</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>1886</v>
       </c>
       <c r="F11" t="n">
-        <v>3962</v>
+        <v>2683</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1603,19 +1621,19 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>1035</v>
+        <v>1005</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1623,13 +1641,13 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>19051</v>
+        <v>16625</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1642,11 +1660,11 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>-639</v>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>19051(c)^</t>
+        <v>2126</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>18995(c)</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1656,25 +1674,28 @@
         <v>100</v>
       </c>
       <c r="X11" t="n">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="Y11" t="n">
-        <v>664</v>
+        <v>785</v>
       </c>
       <c r="Z11" t="n">
-        <v>992</v>
+        <v>1112</v>
       </c>
       <c r="AA11" t="n">
-        <v>1091</v>
+        <v>1290</v>
       </c>
       <c r="AB11" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AD11" t="n">
-        <v>107</v>
+        <v>113</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4.81</v>
       </c>
     </row>
     <row r="12">
@@ -1709,78 +1730,81 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>15</v>
+        <v>-9</v>
       </c>
       <c r="L12" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M12" t="n">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>13625</v>
+        <v>17825</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="n">
         <v>15</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>On</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>Off</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T12" t="n">
-        <v>1376</v>
+        <v>2426</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>19027(c)</t>
+          <t>18827(c)</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>89.77</v>
+        <v>90</v>
       </c>
       <c r="W12" t="n">
-        <v>99.77</v>
+        <v>100</v>
       </c>
       <c r="X12" t="n">
-        <v>541</v>
+        <v>637</v>
       </c>
       <c r="Y12" t="n">
-        <v>492</v>
+        <v>933</v>
       </c>
       <c r="Z12" t="n">
-        <v>702</v>
+        <v>1532</v>
       </c>
       <c r="AA12" t="n">
-        <v>815</v>
+        <v>1387</v>
       </c>
       <c r="AB12" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="AC12" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AD12" t="n">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="13">
@@ -1815,46 +1839,46 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="L13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>14225</v>
+        <v>19051</v>
       </c>
       <c r="P13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>35</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>On</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
       <c r="T13" t="n">
-        <v>1526</v>
+        <v>2576</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1862,31 +1886,34 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="W13" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="X13" t="n">
-        <v>544</v>
+        <v>646</v>
       </c>
       <c r="Y13" t="n">
-        <v>581</v>
+        <v>739</v>
       </c>
       <c r="Z13" t="n">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="AA13" t="n">
-        <v>865</v>
+        <v>1056</v>
       </c>
       <c r="AB13" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AC13" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AD13" t="n">
-        <v>93</v>
+        <v>107</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="14">
@@ -1895,29 +1922,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F14" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1930,69 +1957,72 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>41</v>
+        <v>-2</v>
       </c>
       <c r="M14" t="n">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>14825</v>
+        <v>13625</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>15</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Off</t>
+          <t>On</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1676</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>17947(c)</t>
+        <v>4096</v>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>18790(c)*^</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>86.78</v>
+        <v>90</v>
       </c>
       <c r="W14" t="n">
-        <v>93.88</v>
+        <v>100</v>
       </c>
       <c r="X14" t="n">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="Y14" t="n">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="AA14" t="n">
-        <v>934</v>
+        <v>1114</v>
       </c>
       <c r="AB14" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AC14" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AD14" t="n">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="15">
@@ -2001,49 +2031,49 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F15" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>330</v>
+        <v>118</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="L15" t="n">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O15" t="n">
@@ -2053,52 +2083,55 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1826</v>
+        <v>3646</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19051(s)</t>
+          <t>19051(c)</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>90</v>
+        <v>89.7</v>
       </c>
       <c r="W15" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="X15" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Y15" t="n">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="Z15" t="n">
-        <v>898</v>
+        <v>1027</v>
       </c>
       <c r="AA15" t="n">
-        <v>1042</v>
+        <v>1129</v>
       </c>
       <c r="AB15" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="AC15" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AD15" t="n">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5.31</v>
       </c>
     </row>
     <row r="16">
@@ -2107,56 +2140,56 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D16" t="n">
+        <v>23</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3556</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1738</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ungrooved</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>118</v>
+      </c>
+      <c r="J16" t="n">
         <v>35</v>
       </c>
-      <c r="E16" t="n">
-        <v>1886</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2683</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>350</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M16" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O16" t="n">
         <v>16025</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>35</v>
@@ -2172,7 +2205,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1976</v>
+        <v>3496</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -2180,31 +2213,34 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>90</v>
+        <v>89.8</v>
       </c>
       <c r="W16" t="n">
-        <v>100</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="Y16" t="n">
-        <v>699</v>
+        <v>761</v>
       </c>
       <c r="Z16" t="n">
-        <v>999</v>
+        <v>1250</v>
       </c>
       <c r="AA16" t="n">
-        <v>881</v>
+        <v>1375</v>
       </c>
       <c r="AB16" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="AC16" t="n">
         <v>94</v>
       </c>
       <c r="AD16" t="n">
         <v>99</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>4.26</v>
       </c>
     </row>
     <row r="17">
@@ -2213,53 +2249,53 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F17" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>-9</v>
       </c>
       <c r="M17" t="n">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>16625</v>
+        <v>17825</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2278,11 +2314,11 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2126</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>18995(c)</t>
+        <v>3046</v>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>19051(s)*^</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -2292,25 +2328,28 @@
         <v>100</v>
       </c>
       <c r="X17" t="n">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="Y17" t="n">
-        <v>785</v>
+        <v>825</v>
       </c>
       <c r="Z17" t="n">
-        <v>1112</v>
+        <v>1017</v>
       </c>
       <c r="AA17" t="n">
-        <v>1290</v>
+        <v>1179</v>
       </c>
       <c r="AB17" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC17" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AD17" t="n">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="18">
@@ -2319,58 +2358,56 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YARM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Armidale</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
-        <v>1886</v>
+        <v>3556</v>
       </c>
       <c r="F18" t="n">
-        <v>2683</v>
+        <v>1738</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Ungrooved</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
-      </c>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>-21*</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-6</v>
       </c>
       <c r="L18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>17225</v>
+        <v>19051</v>
       </c>
       <c r="P18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q18" t="n">
         <v>35</v>
@@ -2386,18 +2423,43 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2276</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+        <v>2896</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>19051(c)</t>
+        </is>
+      </c>
+      <c r="V18" t="n">
+        <v>90</v>
+      </c>
+      <c r="W18" t="n">
+        <v>100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>671</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>953</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1566</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1404</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>102</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>107</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2405,63 +2467,63 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D19" t="n">
+        <v>26</v>
+      </c>
+      <c r="E19" t="n">
+        <v>43</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Grooved</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1001</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Dry</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>13625</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
         <v>35</v>
       </c>
-      <c r="E19" t="n">
-        <v>1886</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2683</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>100</v>
-      </c>
-      <c r="J19" t="n">
-        <v>25</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>20</v>
-      </c>
-      <c r="M19" t="n">
-        <v>995</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>17825</v>
-      </c>
-      <c r="P19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>15</v>
-      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2470,39 +2532,42 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2426</v>
+        <v>403</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18827(c)</t>
+          <t>19051(c)</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>90</v>
+        <v>89.73</v>
       </c>
       <c r="W19" t="n">
-        <v>100</v>
+        <v>99.73</v>
       </c>
       <c r="X19" t="n">
-        <v>637</v>
+        <v>512</v>
       </c>
       <c r="Y19" t="n">
-        <v>933</v>
+        <v>584</v>
       </c>
       <c r="Z19" t="n">
-        <v>1532</v>
+        <v>835</v>
       </c>
       <c r="AA19" t="n">
-        <v>1387</v>
+        <v>821</v>
       </c>
       <c r="AB19" t="n">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AC19" t="n">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AD19" t="n">
-        <v>116</v>
+        <v>92</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7.84</v>
       </c>
     </row>
     <row r="20">
@@ -2511,25 +2576,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>YSCB</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>1886</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
-        <v>2683</v>
+        <v>1389</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2537,27 +2602,27 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="L20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Dry</t>
+          <t>Wet</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>19051</v>
+        <v>15025</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2576,7 +2641,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2576</v>
+        <v>163</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2584,31 +2649,34 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>90</v>
+        <v>89.87</v>
       </c>
       <c r="W20" t="n">
-        <v>100</v>
+        <v>99.87</v>
       </c>
       <c r="X20" t="n">
-        <v>646</v>
+        <v>542</v>
       </c>
       <c r="Y20" t="n">
-        <v>739</v>
+        <v>557</v>
       </c>
       <c r="Z20" t="n">
-        <v>960</v>
+        <v>832</v>
       </c>
       <c r="AA20" t="n">
-        <v>1056</v>
+        <v>916</v>
       </c>
       <c r="AB20" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="AD20" t="n">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>6.71</v>
       </c>
     </row>
     <row r="21">
@@ -2617,76 +2685,76 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F21" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I21" t="n">
+        <v>250</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-2</v>
-      </c>
       <c r="M21" t="n">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>13625</v>
+        <v>15725</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4096</v>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>18790(c)^</t>
+        <v>73</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>19051(c)</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -2696,25 +2764,28 @@
         <v>100</v>
       </c>
       <c r="X21" t="n">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Y21" t="n">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="Z21" t="n">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="AA21" t="n">
-        <v>1114</v>
+        <v>842</v>
       </c>
       <c r="AB21" t="n">
         <v>103</v>
       </c>
       <c r="AC21" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD21" t="n">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>6.34</v>
       </c>
     </row>
     <row r="22">
@@ -2723,45 +2794,45 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D22" t="n">
+        <v>26</v>
+      </c>
+      <c r="E22" t="n">
+        <v>43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Grooved</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>240</v>
+      </c>
+      <c r="J22" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
+      </c>
+      <c r="L22" t="n">
         <v>23</v>
       </c>
-      <c r="E22" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>228</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7</v>
-      </c>
       <c r="M22" t="n">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2769,10 +2840,10 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>14225</v>
+        <v>16425</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q22" t="n">
         <v>35</v>
@@ -2784,43 +2855,46 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>On</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3946</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
+        <v>-17</v>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>19051(c)*^</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>89.77</v>
+        <v>90</v>
       </c>
       <c r="W22" t="n">
-        <v>99.77</v>
+        <v>100</v>
       </c>
       <c r="X22" t="n">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="Y22" t="n">
-        <v>632</v>
+        <v>719</v>
       </c>
       <c r="Z22" t="n">
-        <v>917</v>
+        <v>1027</v>
       </c>
       <c r="AA22" t="n">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="AB22" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AD22" t="n">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5.11</v>
       </c>
     </row>
     <row r="23">
@@ -2829,56 +2903,56 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D23" t="n">
+        <v>26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>43</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Grooved</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>240</v>
+      </c>
+      <c r="J23" t="n">
+        <v>25</v>
+      </c>
+      <c r="K23" t="n">
         <v>23</v>
       </c>
-      <c r="E23" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>228</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10</v>
-      </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="M23" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Wet</t>
+          <t>Dry</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>14825</v>
+        <v>17125</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>15</v>
@@ -2894,39 +2968,42 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3796</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>18560(c)</t>
+        <v>-107</v>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>17983(c)*^</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>90</v>
+        <v>86.65000000000001</v>
       </c>
       <c r="W23" t="n">
-        <v>100</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="X23" t="n">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="Y23" t="n">
-        <v>675</v>
+        <v>622</v>
       </c>
       <c r="Z23" t="n">
-        <v>1078</v>
+        <v>767</v>
       </c>
       <c r="AA23" t="n">
-        <v>1109</v>
+        <v>889</v>
       </c>
       <c r="AB23" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AC23" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD23" t="n">
-        <v>107</v>
+        <v>115</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="24">
@@ -2935,45 +3012,45 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>YARM</t>
+          <t>YHID</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Armidale</t>
+          <t>Horn Island</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>3556</v>
+        <v>43</v>
       </c>
       <c r="F24" t="n">
-        <v>1738</v>
+        <v>1389</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ungrooved</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K24" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="L24" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M24" t="n">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2981,10 +3058,10 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>15425</v>
+        <v>19051</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q24" t="n">
         <v>35</v>
@@ -3000,7 +3077,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3646</v>
+        <v>463</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -3008,1409 +3085,34 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>89.7</v>
+        <v>90</v>
       </c>
       <c r="W24" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="X24" t="n">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="Y24" t="n">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="Z24" t="n">
-        <v>1027</v>
+        <v>1150</v>
       </c>
       <c r="AA24" t="n">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="AB24" t="n">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AC24" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AD24" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>118</v>
-      </c>
-      <c r="J25" t="n">
-        <v>35</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-11</v>
-      </c>
-      <c r="L25" t="n">
-        <v>28</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1015</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>16025</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>35</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3496</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V25" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>98.51000000000001</v>
-      </c>
-      <c r="X25" t="n">
-        <v>602</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>761</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1375</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>94</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>94</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>23</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>198</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>22</v>
-      </c>
-      <c r="L26" t="n">
-        <v>9</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>16625</v>
-      </c>
-      <c r="P26" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>35</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T26" t="n">
-        <v>3346</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>90</v>
-      </c>
-      <c r="W26" t="n">
-        <v>100</v>
-      </c>
-      <c r="X26" t="n">
-        <v>615</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>631</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>945</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>902</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>23</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>208</v>
-      </c>
-      <c r="J27" t="n">
-        <v>15</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14</v>
-      </c>
-      <c r="L27" t="n">
-        <v>10</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1025</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>17225</v>
-      </c>
-      <c r="P27" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>15</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T27" t="n">
-        <v>3196</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>19051(s)</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>90</v>
-      </c>
-      <c r="W27" t="n">
-        <v>100</v>
-      </c>
-      <c r="X27" t="n">
-        <v>642</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>723</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1189</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1191</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>113</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>105</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>23</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>128</v>
-      </c>
-      <c r="J28" t="n">
-        <v>15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-9</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1030</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>17825</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>15</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>3046</v>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>19051(s)^</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>90</v>
-      </c>
-      <c r="W28" t="n">
-        <v>100</v>
-      </c>
-      <c r="X28" t="n">
-        <v>657</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>825</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1017</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1179</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>116</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>106</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>YARM</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Armidale</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>23</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3556</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1738</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Ungrooved</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>118</v>
-      </c>
-      <c r="J29" t="n">
-        <v>20</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>13</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1035</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>19051</v>
-      </c>
-      <c r="P29" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>35</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T29" t="n">
-        <v>2896</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>90</v>
-      </c>
-      <c r="W29" t="n">
-        <v>100</v>
-      </c>
-      <c r="X29" t="n">
-        <v>671</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>953</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1566</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1404</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>113</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>102</v>
-      </c>
-      <c r="AD29" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>26</v>
-      </c>
-      <c r="E30" t="n">
-        <v>43</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1001</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>13625</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>35</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>403</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>89.73</v>
-      </c>
-      <c r="W30" t="n">
-        <v>99.73</v>
-      </c>
-      <c r="X30" t="n">
-        <v>512</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>584</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>835</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>821</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>92</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>87</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>26</v>
-      </c>
-      <c r="E31" t="n">
-        <v>43</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>270</v>
-      </c>
-      <c r="J31" t="n">
-        <v>15</v>
-      </c>
-      <c r="K31" t="n">
-        <v>15</v>
-      </c>
-      <c r="L31" t="n">
-        <v>17</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1005</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>14325</v>
-      </c>
-      <c r="P31" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>35</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T31" t="n">
-        <v>283</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>89.83</v>
-      </c>
-      <c r="W31" t="n">
-        <v>99.83</v>
-      </c>
-      <c r="X31" t="n">
-        <v>527</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>573</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>819</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>773</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>88</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>26</v>
-      </c>
-      <c r="E32" t="n">
-        <v>43</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>260</v>
-      </c>
-      <c r="J32" t="n">
-        <v>15</v>
-      </c>
-      <c r="K32" t="n">
-        <v>15</v>
-      </c>
-      <c r="L32" t="n">
-        <v>10</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1009</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Wet</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>15025</v>
-      </c>
-      <c r="P32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>35</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T32" t="n">
-        <v>163</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>89.87</v>
-      </c>
-      <c r="W32" t="n">
-        <v>99.87</v>
-      </c>
-      <c r="X32" t="n">
-        <v>542</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>557</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>916</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>96</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>91</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>26</v>
-      </c>
-      <c r="E33" t="n">
-        <v>43</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>250</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1012</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>15725</v>
-      </c>
-      <c r="P33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>35</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>73</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V33" t="n">
-        <v>90</v>
-      </c>
-      <c r="W33" t="n">
-        <v>100</v>
-      </c>
-      <c r="X33" t="n">
-        <v>556</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>671</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>959</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>842</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>103</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>92</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>26</v>
-      </c>
-      <c r="E34" t="n">
-        <v>43</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>240</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>23</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1015</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>16425</v>
-      </c>
-      <c r="P34" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>35</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>-17</v>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>19051(c)^</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>90</v>
-      </c>
-      <c r="W34" t="n">
-        <v>100</v>
-      </c>
-      <c r="X34" t="n">
-        <v>571</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>719</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1027</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>872</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>107</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>94</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>26</v>
-      </c>
-      <c r="E35" t="n">
-        <v>43</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>240</v>
-      </c>
-      <c r="J35" t="n">
-        <v>25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>23</v>
-      </c>
-      <c r="L35" t="n">
-        <v>43</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1018</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>17125</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>15</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T35" t="n">
-        <v>-107</v>
-      </c>
-      <c r="U35" s="2" t="inlineStr">
-        <is>
-          <t>17983(c)^</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>90</v>
-      </c>
-      <c r="W35" t="n">
-        <v>99.25</v>
-      </c>
-      <c r="X35" t="n">
-        <v>600</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>622</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>767</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>889</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>115</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>105</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>26</v>
-      </c>
-      <c r="E36" t="n">
-        <v>43</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>230</v>
-      </c>
-      <c r="J36" t="n">
-        <v>15</v>
-      </c>
-      <c r="K36" t="n">
-        <v>13</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1020</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>17825</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>15</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>On</t>
-        </is>
-      </c>
-      <c r="T36" t="n">
-        <v>-167</v>
-      </c>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>19051(s)^</t>
-        </is>
-      </c>
-      <c r="V36" t="n">
-        <v>90</v>
-      </c>
-      <c r="W36" t="n">
-        <v>100</v>
-      </c>
-      <c r="X36" t="n">
-        <v>615</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>677</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>834</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>967</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>116</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>106</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>YHID</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Horn Island</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>26</v>
-      </c>
-      <c r="E37" t="n">
-        <v>43</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1389</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Grooved</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>30</v>
-      </c>
-      <c r="J37" t="n">
-        <v>10</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-6</v>
-      </c>
-      <c r="L37" t="n">
-        <v>33</v>
-      </c>
-      <c r="M37" t="n">
-        <v>999</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Dry</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>19051</v>
-      </c>
-      <c r="P37" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>35</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Off</t>
-        </is>
-      </c>
-      <c r="T37" t="n">
-        <v>463</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>19051(c)</t>
-        </is>
-      </c>
-      <c r="V37" t="n">
-        <v>90</v>
-      </c>
-      <c r="W37" t="n">
-        <v>100</v>
-      </c>
-      <c r="X37" t="n">
-        <v>627</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>805</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>1150</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1107</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>102</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>107</v>
+      <c r="AE24" t="n">
+        <v>2.49</v>
       </c>
     </row>
   </sheetData>
